--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA36C4E0-7ECB-419A-9674-78A6BEA5F614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03AFFF-CD8F-46D3-965B-4EB2138BCC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,10 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
-  <si>
-    <t>Services / functionality</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="235">
   <si>
     <t>Area</t>
   </si>
@@ -102,13 +99,690 @@
   </si>
   <si>
     <t>If customization through parameterization is insufficient, you should challenge the SaaS supplier on the availability of accessible APIs that would make it possible to build functionality outside the application, plug it in and complement the solution this way. SaaS supplier should be committed to maintain such APIs over term of the contract or at least for a defined time with a notification period long enough to implement alternative action before the API is removed or stopped maintained.</t>
+  </si>
+  <si>
+    <t>Services / functionality</t>
+  </si>
+  <si>
+    <t>Service Descriptions</t>
+  </si>
+  <si>
+    <t>Does the contract detail the scope and functionality of the online services?</t>
+  </si>
+  <si>
+    <t>This is sometimes the case, but in general the documentation will be on a higher level than what is the case with dedicated services. As a fact, the specification of the software and functionality may well be the solution as demonstrated, marketed, and sold.</t>
+  </si>
+  <si>
+    <t>Investigate properly that the offered service meets Customer needs. If possible, purchase a trial version to conduct testing of the service.</t>
+  </si>
+  <si>
+    <t>Back up / data mirroring</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier deliver data back up and/or data mirroring? If yes:</t>
+  </si>
+  <si>
+    <t>Depending on business criticality, exit regulations and access to data, independent back up should be considered to secure access to data.[LAR1]</t>
+  </si>
+  <si>
+    <t>What is the backup frequency / data mirroring latency?</t>
+  </si>
+  <si>
+    <t>Back up retention period?</t>
+  </si>
+  <si>
+    <t>Process and timeline for restoring data (RTO/RPO)?</t>
+  </si>
+  <si>
+    <t>Disaster recovery</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier have a disaster recovery plan? Does the plan say what triggers a recovery, how long does it take to recover or restore data from backup?</t>
+  </si>
+  <si>
+    <t>It varies to what extent the SaaS supplier shares this with the customers. Depending on business criticality of the solution, you may have to rely on the generic SLAs for the operation of the service.</t>
+  </si>
+  <si>
+    <t>For business-critical solutions, the only real mitigation may be plan B, i.e. to consider alternative vendors or solutions in house and how quickly this can be established.</t>
+  </si>
+  <si>
+    <t>Service Levels</t>
+  </si>
+  <si>
+    <t>SLA</t>
+  </si>
+  <si>
+    <t>Any written documentation for the SLA? Are SLA objectives measurable and have relevant penalties? Do they cover availability, response times or other?
+What does the SLA cover?</t>
+  </si>
+  <si>
+    <t>There will normally be SLAs available in the contract, but seldom as strict or distinct as in dedicated services. The SLA will normally be described in the Service specific terms.</t>
+  </si>
+  <si>
+    <t>The level of SLAs has to be measured up against customer business criticality of the solution.
+Penalty should not be a goal in itself but may give a more serious impression that the SaaS supplier is serious about the SLA.</t>
+  </si>
+  <si>
+    <t>Support</t>
+  </si>
+  <si>
+    <t>Service desk / support</t>
+  </si>
+  <si>
+    <t>Does the c SaaS supplier provide any support? 
+If yes:</t>
+  </si>
+  <si>
+    <t>Some SaaS suppliers provide basic support as standard, while others do not. Most SaaS suppliers also have standard offers for increased support.</t>
+  </si>
+  <si>
+    <t>Investigate your needs compared with what the SaaS supplier offers.</t>
+  </si>
+  <si>
+    <t>Different support levels / cost?</t>
+  </si>
+  <si>
+    <t>Hours of operation?</t>
+  </si>
+  <si>
+    <t>Phone, web or tickets through a portal?</t>
+  </si>
+  <si>
+    <t>In which language(s) is support provided?</t>
+  </si>
+  <si>
+    <t>Is this support for all users? Super users? Or in reality 2nd line behind Customer own 1st line? Do the SaaS supplier offer different levels of support?</t>
+  </si>
+  <si>
+    <t>Any SLA like response times for resolution etc, or similar for the servicedesk?</t>
+  </si>
+  <si>
+    <t>Security and certification</t>
+  </si>
+  <si>
+    <t>Security standards and certifications.</t>
+  </si>
+  <si>
+    <t>Which security protocols and standards do the SaaS supplier adhere to?</t>
+  </si>
+  <si>
+    <t>This is not so much a legal issue, but you should consider the sensitivity of data in the solution, versus the offered level of security.</t>
+  </si>
+  <si>
+    <t>Method for user authentication and identity assurance?</t>
+  </si>
+  <si>
+    <t>Which user logs are kept, and will they be accessible for Customer?</t>
+  </si>
+  <si>
+    <t>Are there any technical and organisational measures that aim to remedy the risks entailed by lack of control and lack of information featuring in the cloud computing environment? E.g. measures aimed at ensuring availability, integrity, confidentiality, isolation, intervenability and portability.</t>
+  </si>
+  <si>
+    <t>Checking out this is part of the buying process and qualification of the solution in scope.</t>
+  </si>
+  <si>
+    <t>Certification and Audits</t>
+  </si>
+  <si>
+    <t>What kind of certifications does the SaaS supplier have (ISO 2001, SOC report etc.)?</t>
+  </si>
+  <si>
+    <t>This is information that may be needed in order to fulfil Customer's own certifications and to document that the SaaS supplier has satisfying processes and routines.</t>
+  </si>
+  <si>
+    <t>Is the SaaS supplier in other way able to document satisfying processes and routines?</t>
+  </si>
+  <si>
+    <t>Is the SaaS supplier audited by an independent auditor at generic level and at regular intervals? How often? Will you get access to the audit report? In full or only parts?</t>
+  </si>
+  <si>
+    <t>This will normally be the case from a SaaS supplier.</t>
+  </si>
+  <si>
+    <t>Is the SaaS supplier in other way able to document that processes and routines are followed?</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier allow reports from security audits to be submitted to regulatory authorities (i.e. the Data Protection authority)?</t>
+  </si>
+  <si>
+    <t>If not, this may lead to a breach of EU Personal Data Protection Regulations.</t>
+  </si>
+  <si>
+    <t>Negotiate to get the opportunity to share what is needed to be compliant with the data protection regulations.</t>
+  </si>
+  <si>
+    <t>Does the contract empower Customer, or a third party on behalf of Customer, to audit processing operations on personal data performed by the SaaS supplier and its sub-contractors?</t>
+  </si>
+  <si>
+    <t>Most contracts are silent about potential audit, but some providers have clauses accepting an annual data privacy audit.</t>
+  </si>
+  <si>
+    <t>If needed due to Data Protection Regulations, negotiate with the SaaS supplier.</t>
+  </si>
+  <si>
+    <t>Data and Privacy Protection</t>
+  </si>
+  <si>
+    <t>Data Processing Agreement</t>
+  </si>
+  <si>
+    <t>Is there a data processing agreement in place in accordance with GDPR Article 28?</t>
+  </si>
+  <si>
+    <t>If not, this may potentially lead to a breach of EU Personal Data Protection Regulations.</t>
+  </si>
+  <si>
+    <t>It is preferable to use a known standard template as a basis. Investigate and get sufficient insight to determine if the SaaS supplier is compliant or not, see specifically the issues below. If not compliant, negotiate and be prepared to walk away.</t>
+  </si>
+  <si>
+    <t>Warranties</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement state that the SaaS supplier warrant that it will be compliant with the EU Personal Data Protection Regulations when providing the service?</t>
+  </si>
+  <si>
+    <t>Even though this should be explored further by the Customer, it is vital that the SaaS supplier has a firm understanding of the EU Personal Data Protection Regulations’ requirements.</t>
+  </si>
+  <si>
+    <t>Investigate and get sufficient insight to determine if the SaaS supplier is compliant or not. If not compliant, negotiate and be prepared to walk away. It should specifically be stated that the SaaS supplier shall implement appropriate technical and organisational measures in such a manner that processing will be in accordance with the requirements in the EU Personal Data Protection Regulations, and ensure the protection of the right of the data subject.</t>
+  </si>
+  <si>
+    <t>Specification of the processing</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement include a clause stating that the personal data shall be processed by SaaS supplier or any subcontractors only in accordance with instructions from the Customer and as specified in the data processing agreement</t>
+  </si>
+  <si>
+    <t>Negotiate a clause stating that the processing will only happen based on documented instruction from Customer as set forth in the data processing agreement.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement specify the purpose of the processing?</t>
+  </si>
+  <si>
+    <t>Negotiate a clause stating the purpose of the processing</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement specify the types of personal data processed by the SaaS supplier?</t>
+  </si>
+  <si>
+    <t>Negotiate a clause stating the types of personal data to be processed.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement specify the categories of the data subjects</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement specify the duration of the processing.</t>
+  </si>
+  <si>
+    <t>Negotiate a clause specifying the duration of the processing.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement impose an obligation on the SaaS supplier to assist the Customer in ensuring compliance with articles 32 to 36 in the GDPR.</t>
+  </si>
+  <si>
+    <t>Negotiate a clause specifying the obligation to assist.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement impose an obligation on the SaaS supplier to provide the Customer with information about the processing and to accept audits etc.</t>
+  </si>
+  <si>
+    <t>Negotiate a clause specifying this obligation.</t>
+  </si>
+  <si>
+    <t>Subprocessors</t>
+  </si>
+  <si>
+    <t>Are the sub processors listed anywhere?</t>
+  </si>
+  <si>
+    <t>Most SaaS suppliers list the sub processors at their internet site.</t>
+  </si>
+  <si>
+    <t>Negotiate access to a list of subprocessors, including a specification of the country in which the subprocessor will process personal data, and ensure that this list is included as an appendix to the data processing agreement.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreements state that the SaaS supplier shall when using a subprocessor, impose the same obligations on the sub processor as SaaS supplier has under the data processor agreement.</t>
+  </si>
+  <si>
+    <t>This is an obligation on the cloud provider under the EU Personal Data Protection Regulations.</t>
+  </si>
+  <si>
+    <t>It is preferable that this is stated clearly in the data processing agreement</t>
+  </si>
+  <si>
+    <t>Does the Customer have the opportunity to object to change of sub processors?</t>
+  </si>
+  <si>
+    <t>Most SaaS supplier give the Customer the opportunity to object to a change in sub processors. If Customer objects, it will normally only lead to a termination for convenience from one of the parties after at notification period.</t>
+  </si>
+  <si>
+    <t>Negotiate that Customer may object to changes of subprocessors, or at least that the notification period is long enough for the Customer to have time to exit the service.</t>
+  </si>
+  <si>
+    <t>Confidentiality</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement ensure that persons authorised to process the personal data is under obligation of confidentiality.</t>
+  </si>
+  <si>
+    <t>Negotiate a clause stating such confidentiality.</t>
+  </si>
+  <si>
+    <t>Righs of the data subject</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement ensure that the SaaS supplier is obliged to support the Customer in facilitating exercise of data subject's rights such as access/correction/erasure of their personal data.</t>
+  </si>
+  <si>
+    <t>If not, this may potentially lead to a breach of EU Personal Data Protection Regulations. 
+The Customer may not need the SaaS supplier to support in facilitating this. The main checkpoint is whether the service as such allows the Customer to fulfil its obligations to do this, but this functionality has to be so extensive that it includes more than one dimension of data: Back-up, storage for disaster recovery, meta data etc.</t>
+  </si>
+  <si>
+    <t>If the cloud provider’s support is needed, negotiate such regulation if it is not already covered in the data processing agreement.</t>
+  </si>
+  <si>
+    <t>Transfer/export of personal data</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier clarify which geographies the personal data will be stored and processed?</t>
+  </si>
+  <si>
+    <t>Observe that there may be differences between Norway, EEA, EU and countries covered by an adequacy decision on one hand and countries outside EU on the other hand. Many cloud providers offer dedicated data centers within the EU/EEA or a country covered by an adequacy decision.</t>
+  </si>
+  <si>
+    <t>Consider if the SaaS supplier is offering dedicated datacentres for storage and processing.</t>
+  </si>
+  <si>
+    <t>Does the cloud service involve the transfer of personal data outside of the EU/EEA and a country covered by an adequacy decision?</t>
+  </si>
+  <si>
+    <t>Access from personnel stationed outside of the EU/EEA and a country covered by will also constitute "transfer".</t>
+  </si>
+  <si>
+    <t>If personal data is transferred to locations outside the mentioned, an unaltered EU model clauses or processor binding corporate rules needs to be in place.</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier ensure lawfulness of cross-border personal data transfers and do they have a list of locations in which the services may be provided from? May Customer limit the SaaS supplier’s right to change or disregard such a list?</t>
+  </si>
+  <si>
+    <t>Customer must know in which country personal data is stored and/or processed. Make sure to understand whether the countries are within or outside EU/EEA or a country covered by an adequacy decision, as mitigations may vary. The list of subsuppliers can also indicate whether personal data is transferred.</t>
+  </si>
+  <si>
+    <t>Negotiate to get the SaaS supplier to accept minimum requirements based on the EU Personal Data Protection Regulations regime. If SaaS supplier does not accept, the SaaS supplier cannot process personal data! The preferred solution is dedicated data center(s) within EU/EEA, and that the SaaS supplier is under no circumstances allowed to transfer personal data to locations outside the mentioned if the requirements in the EU Personal Data Protection Regulations are not met.</t>
+  </si>
+  <si>
+    <t>Does the contract include specific safeguards like standard contractual clauses (SCC) rules to regulate transfers of personal data to non-adequate third countries and included additional measures if the law of the country is not sufficient to protect personal data, including also sufficient protected from disclosure to the authorities?</t>
+  </si>
+  <si>
+    <t>This is a must if the Customer transfer personal data to location outside EU/EEA and countries covered by an adequacy decision, as it otherwise may potentially lead to a breach of EU Personal Data Protection Regulations. 
+Most SaaS supplier seem to be willing to sign a data processing agreement based on EU Model Clauses, but may have precedence regulation that states that the elements in this agreement only applies to the extent the items are not covered by BCR. .</t>
+  </si>
+  <si>
+    <t>Negotiate based on EU Model Clauses and define potential extra safeguards, especially both regarding the transfer from the Customer to the SaaS supplier and the potential onward transfer from the SaaS supplier.</t>
+  </si>
+  <si>
+    <t>Data security</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement clarify the SaaS supplier’s responsibilities to notify the Customer in the event of any data breach which affects personal data?</t>
+  </si>
+  <si>
+    <t>Negotiate clauses that clarify this.</t>
+  </si>
+  <si>
+    <t>Does the data processing agreement ensure a logging of processing operations on personal data performed by SaaS supplier and its subcontractors?</t>
+  </si>
+  <si>
+    <t>Negotiate clauses that are ensuring such logging.</t>
+  </si>
+  <si>
+    <t>Does the contract specify the conditions for returning the personal data and destroying the personal data once the service is concluded?</t>
+  </si>
+  <si>
+    <t>Customer may not need the SaaS supplier to support in facilitating this. The main checkpoint is whether the service as such allows Customer to fulfil its obligations to do this, but this functionality has to be so extensive that it includes more than one dimension of data: Back-up, storage for disaster recovery, meta data etc.</t>
+  </si>
+  <si>
+    <t>If SaaS supplier’s support is needed, negotiate such regulation if it is not already covered in the contract.</t>
+  </si>
+  <si>
+    <t>Does the contract ensure that personal data is erased securely (destruction, demagnetisation, overwriting) at the request of Customer?</t>
+  </si>
+  <si>
+    <t>Indemnity and Liability</t>
+  </si>
+  <si>
+    <t>What are the regulations around indemnity/liability for data privacy breaches?</t>
+  </si>
+  <si>
+    <t>The potential administrative fines/penalty for Customer following privacy breaches is substantial. This is also the case regarding potential claims for compensation from the data subjects.
+Please note that administrative fines/penalties for data privacy breaches under EU Personal Data Protection Regulations may be very high. An indemnity covering administrative fines/penalty/claim for compensation incurred by the SaaS supplier should not be accepted.</t>
+  </si>
+  <si>
+    <t>Investigate the terms and conditions covering the services and the data processing agreement with the potential SaaS supplier and understand the risk for the Customer given privacy breaches.</t>
+  </si>
+  <si>
+    <t>Use rights, license metrics, pricing</t>
+  </si>
+  <si>
+    <t>Use Rights for affiliates</t>
+  </si>
+  <si>
+    <t>Does the right to use the service cover:
+- Affiliated companies?
+Is the definition of affiliates fitting for your ownership (e.g 50% of the shares or voting rights, or lower if needed)?
+Is there a transition period where affiliates that are sold, still may use the services for a period when establishing an alternative?
+- 
+-</t>
+  </si>
+  <si>
+    <t>Often the use right descriptions give the “customer” use rights but says nothing about rights for affiliated companies to use. Therefor analyse the general use right descriptions and assess whether they grant you the use rights you need.</t>
+  </si>
+  <si>
+    <t>Must often be negotiated into the T&amp;C’s</t>
+  </si>
+  <si>
+    <t>Use Rights License / subscription/ business model and price</t>
+  </si>
+  <si>
+    <t>What are the use rights terms for:</t>
+  </si>
+  <si>
+    <t>These are a number of use rights descriptions that should be observed. Some SaaS supplier’s seem to take unreasonable advantages of excessive use, license parameters, strict non transfer regulations etc. Its therefor important to review the use rights/metrics to verify that you planned use is covered by the description. The alternative is normally that you risk having to buy more licenses to something. 
+Example: If there are different user types, one light (cheep) and one heavy (expensive), does the light user allow your employees to perform all tasks in the solution that they need, or do you risk having to upgrade to the heavy user?
+Another example, if you are allowed to have 5 “custom objects” per user, is it clearly defined what it is, and will this cover your needs? Have you then control over “standard objects” included in the service?
+A third example, if you are licensed to 1000 API calls per day, have you assessed if this cover your needs? Do you understand the descriptions about what an API call is?</t>
+  </si>
+  <si>
+    <t>Make sure Customer understands all aspects of the license mechanisms. Take into account that other units within Customer already may have, or in the future will be buying the same cloud service. Negotiations should always seek maximum flexibility in terms of licensing.</t>
+  </si>
+  <si>
+    <t>for the various part of the cloud services. Are they clear and understandable?</t>
+  </si>
+  <si>
+    <t>Capacity limits and additional ordered capacity?</t>
+  </si>
+  <si>
+    <t>Additional capacity used, but not ordered (excessive use)?</t>
+  </si>
+  <si>
+    <t>Number of users and additional users?</t>
+  </si>
+  <si>
+    <t>Does the use rights cover temps, consultants, contractors etc?</t>
+  </si>
+  <si>
+    <t>Licensed Territories?</t>
+  </si>
+  <si>
+    <t>Named users or simultaneous users?</t>
+  </si>
+  <si>
+    <t>Types of users (categories)?</t>
+  </si>
+  <si>
+    <t>Are you allowed to swap users in general, and perhaps also between products?</t>
+  </si>
+  <si>
+    <t>What happens with user data if a user is disabled (for instance for a period with parental leave)?</t>
+  </si>
+  <si>
+    <t>Are needed back-ups and environments included?</t>
+  </si>
+  <si>
+    <t>May licenses be utilized across Customer and its affiliates?</t>
+  </si>
+  <si>
+    <t>Scalability (is there flexibility to change/increase and decrease volumes?).</t>
+  </si>
+  <si>
+    <t>Does Customer have license agreements that may be utilized (remix)?</t>
+  </si>
+  <si>
+    <t>Can you freely integrate with other software/services, without needing a separate license for that?</t>
+  </si>
+  <si>
+    <t>Are you allowed for trial use of new products you consider?</t>
+  </si>
+  <si>
+    <t>Restrictions</t>
+  </si>
+  <si>
+    <t>Any specific restrictions in the right to use? Acceptable use policy is one example that should be investigated versus Customer needs. For instance, that you are not allowed to use the solution for nuclear activities. Are you allowed to use as you plan?</t>
+  </si>
+  <si>
+    <t>Consider whether any restraints make the solution impractical for Customer to utilize.</t>
+  </si>
+  <si>
+    <t>Depends on findings.</t>
+  </si>
+  <si>
+    <t>Invoicing, Currency</t>
+  </si>
+  <si>
+    <t>What are the payment terms and invoicing process? In advance? Monthly? Yearly? 30 days for payment? 
+What is the currency for payment?</t>
+  </si>
+  <si>
+    <t>This is not so much a legal issue, but the terms should be understood.</t>
+  </si>
+  <si>
+    <t>Price lock</t>
+  </si>
+  <si>
+    <t>Are the prices binding / for how long? 
+Have you also locked prices for additional licenses/excessive use?
+Is the price adjustment mechanism balanced?</t>
+  </si>
+  <si>
+    <t>For possible extension of term, consider if it shall be negotiated that prices shall apply for extension periods to avoid that the SaaS supplier demands that the higher standard prices will apply (price lock). At least to SaaS services.</t>
+  </si>
+  <si>
+    <t>Term, Termination, and suspension</t>
+  </si>
+  <si>
+    <t>Term</t>
+  </si>
+  <si>
+    <t>Does the contract detail the term of the Online Services?</t>
+  </si>
+  <si>
+    <t>Some SaaS suppliers provide a defined term, while other provide the service as a subscription which can be ended by both parties. 
+Be aware that a transition into cloud will have a cost and the term should be appropriate when comparing with the investment in transition.</t>
+  </si>
+  <si>
+    <t>The term should somehow be balanced with the investment Customer has made to use the system. This item may be more critical if client classify the transition cost as Capex.
+A fixed defined term also helps business continuity, if transition to an alternative service will take a lot of time</t>
+  </si>
+  <si>
+    <t>Termination for convenience / end of term</t>
+  </si>
+  <si>
+    <t>Can the SaaS supplier terminate the services without cause? If yes, what is the notice period?</t>
+  </si>
+  <si>
+    <t>Most SaaS supplier have this right in their contracts and often without any specific trigger events.
+If the notice period is too short, it may not be possible to secure data and transition services to a new vendor.</t>
+  </si>
+  <si>
+    <t>Investigate if the opportunity to terminate for convenience is limited to defined triggers. if not, consider if this is an item that should be negotiated. 
+Make sure there is a sufficient notice period to be able to transition services to another vendor (utilize plan B).</t>
+  </si>
+  <si>
+    <t>Termination for cause</t>
+  </si>
+  <si>
+    <t>Any regulation about what constitutes material breach of contract?</t>
+  </si>
+  <si>
+    <t>As a minimum it should be a cure / notice period where the data is kept and accessible to 
+a) Not lose any data and;
+b) be able to transition data/ services to another vendor.</t>
+  </si>
+  <si>
+    <t>Negotiate sufficient time for a transition and the right to rectify / cure the breach before the termination takes effect. 
+Negotiate that reasonable disputed payment is not a breach that can be used for termination or suspension of the services.</t>
+  </si>
+  <si>
+    <t>Any cure period before termination takes effect?</t>
+  </si>
+  <si>
+    <t>Other trigger events for termination?</t>
+  </si>
+  <si>
+    <t>Any regulations that give the SaaS supplier the right to terminate the services, for instance due to changes in law, and without an obligation for the provider to use commercially reasonable efforts to solve, rather than just terminating?</t>
+  </si>
+  <si>
+    <t>As a minimum is should be a notice period before the service is suspended.</t>
+  </si>
+  <si>
+    <t>Try to negotiate a notice period that allows you to plan and implement an alternative, preferrable also negotiate an obligation for the SaaS supplier to use commercially reasonable efforts to solve/change the service, rather than terminating.</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier have right to suspend services for specific reasons, other than material breach? 
+As an example, in a situation with any non-payment, any breach of the acceptable use policy or similar where your breach will not have a detrimental effect for the cloud service? If yes, is there a notice period or other important conditions to be observed?</t>
+  </si>
+  <si>
+    <t>Make sure the notice period is there, and sufficient to be able to correct so suspension does not happen.
+During a suspension, the SaaS supplier obligation to store and give access to data must be secured.
+Are there are other triggers / circumstances whereas the SaaS supplier may suspend the services?</t>
+  </si>
+  <si>
+    <t>Negotiate sufficient notice period cure period exist before the suspension take effect, and access to data during a suspension period. 
+If tied to non-payment, make sure the clause is applicable for non-disputed invoices only. 
+To avoid that Services are suspended for Customer due to reasons attributable to individual users, try to negotiate a clause differentiating between Customer as end client and single users (individual employees) - if a user may be suspended, it should be limited to that user.</t>
+  </si>
+  <si>
+    <t>Other legal considerations</t>
+  </si>
+  <si>
+    <t>Data and Data deletion</t>
+  </si>
+  <si>
+    <t>How does the SaaS supplier provide customer data at end of term? (Data portability and methodology to be followed). Transfer technology, file formats, protocols, metadata etc.</t>
+  </si>
+  <si>
+    <t>This is an important item, given 
+a) All contracts will have an end
+b) quite a few situations where the standardized nature of cloud offering may lead to the conclusion that exit is the only mitigation available. 
+It needs to be clear from the contract that the provider has an obligation to store, and give access to data, for a period after end of term.</t>
+  </si>
+  <si>
+    <t>Negotiate a technically and functionally solution that Customer can accept.</t>
+  </si>
+  <si>
+    <t>Timeline for transfer of data after the end of term?</t>
+  </si>
+  <si>
+    <t>For how long will data be stored and available after end of term?</t>
+  </si>
+  <si>
+    <t>The different SaaS supplier’s have different regulations, but mainly it varies from no storage to access for 30 days.</t>
+  </si>
+  <si>
+    <t>Negotiate if the time is not sufficient.</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier undertake to cooperate with the customer and the new vendor to transfer data to the new vendor?</t>
+  </si>
+  <si>
+    <t>This may be an important item, given quite a few situations where the standardized nature of cloud offering may lead to the conclusion that exit is the only mitigation available.</t>
+  </si>
+  <si>
+    <t>Understand if the SaaS supplier is needed to transfer the data, and if yes, negotiate in sufficient obligation to cooperate.</t>
+  </si>
+  <si>
+    <t>Liability</t>
+  </si>
+  <si>
+    <t>Is there a mutual limitation of liability in the contract?</t>
+  </si>
+  <si>
+    <t>This is mainly a commercial consideration - not very different from the normal, dedicated buying of services.
+Some SaaS supplier’s only have a limitation of liability protecting the SaaS supplier and hence Customer liability may be unlimited.</t>
+  </si>
+  <si>
+    <t>Negotiate a mutual liability cap at maximum one year's cost of the contract.</t>
+  </si>
+  <si>
+    <t>If there is a limitation of liability – for which types of liability (e.g. simple negligence, gross negligence, wilful breach etc.).</t>
+  </si>
+  <si>
+    <t>Indemnity</t>
+  </si>
+  <si>
+    <t>What is subject to indemnity?
+What is the indemnity process? i.e. will the indemnifying party control the claim? 
+Geography the services will cover?
+Will a third-party claim give the SaaS supplier the right to terminate the service rather using commercially reasonable efforts to correct or replace the service with an equivalent?</t>
+  </si>
+  <si>
+    <t>Indemnity is normally uncapped and it is of importance to understand the risk incurred. It is a big difference in risk if the indemnity only cover infringement in 3. parties rights or also regulatory compliance.</t>
+  </si>
+  <si>
+    <t>Try to negotiate and limit Customer exposure to infringement of 3. parties rights conducted by Customer. If broader risk must be accepted, understand the risks involved.</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier give any warranties regarding performance?</t>
+  </si>
+  <si>
+    <t>Normally, the SaaS supplier do not warrant performance. The consequence of poor performance will normally be the possibility to end contract and possible SLA credits if the SaaS supplier offers SLA credits.</t>
+  </si>
+  <si>
+    <t>Investigate what types of warranties or SLA the SaaS supplier offers. This is not so much a legal issue. It is more about what Customer are willing to accept commercially.</t>
+  </si>
+  <si>
+    <t>Contract Changes</t>
+  </si>
+  <si>
+    <t>Does the SaaS supplier have the freedom to unilaterally change the terms and conditions of the contract, including license terms/metrics without Customer's consent? If yes, are there any thresholds and notice period?</t>
+  </si>
+  <si>
+    <t>Most SaaS supplier accept that contract cannot be unilaterally changed. However, at least one of the big hyperscalers have the freedom to unilaterally change contract without any thresholds. 
+Thresholds may mitigate the challenge, but accepting even smaller unilateral changes may be challenging and should be avoided to the extent possible.
+A notice period should be sufficient as to the extreme problem resolution: Exit the cloud service (Plan B).</t>
+  </si>
+  <si>
+    <t>Negotiate thresholds for unilateral changes: It may be helpful to differentiate between changes that impacts the solution as such, versus, for example, commercial changes. We often see customer protection in the form of “shall not materially change” or similar. 
+If the SaaS supplier may unilaterally change the contract, make sure there is a sufficient notice period, and, again, that the exit mechanism is flexible. Also, a plan B with an alternative provider should be ready.</t>
+  </si>
+  <si>
+    <t>Export Control</t>
+  </si>
+  <si>
+    <t>Force Majeure</t>
+  </si>
+  <si>
+    <t>In a force majeure situation, will payment breach still be a breach?</t>
+  </si>
+  <si>
+    <t>We see in some contracts that if you fail to pay because of a force majeure event (payment infrastructure is down in such a situation), this still does not qualify as a force majeure event</t>
+  </si>
+  <si>
+    <t>If such wording exists, you should try to change it through negotiations.</t>
+  </si>
+  <si>
+    <t>Law, legal venue and dispute resolution</t>
+  </si>
+  <si>
+    <t>Which law is the contract subject to?
+What are the legal venue for disputes arising under the contract?
+What are the regulations around dispute resolution?</t>
+  </si>
+  <si>
+    <t>The content of local law in different geographies may vary and the cost involved for disputes may be very different between different geographies.</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,27 +804,41 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -159,8 +847,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -171,20 +876,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,130 +1182,1770 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G90"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="18.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="39.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="6">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="4" t="s">
+      <c r="B13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
         <v>13</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="2"/>
+      <c r="F14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="283.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B15" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="4" t="s">
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
         <v>16</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="B17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="315" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="B18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>18</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4" t="s">
+      <c r="B19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>19</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="B20" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="220.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="4" t="s">
+      <c r="B21" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
         <v>21</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4" t="s">
+      <c r="B22" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
         <v>22</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="B23" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
         <v>23</v>
       </c>
+      <c r="B24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E28" s="2"/>
+      <c r="F28" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="2"/>
+      <c r="F32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="E37" s="2"/>
+      <c r="F37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="357" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="1"/>
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="1"/>
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C63" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="1"/>
+      <c r="G72" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>73</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E80" s="2"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E83" s="2"/>
+      <c r="F83" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>83</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C84" s="4"/>
+      <c r="D84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E84" s="2"/>
+      <c r="F84" s="1"/>
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E85" s="2"/>
+      <c r="F85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>85</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="E87" s="2"/>
+      <c r="F87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D88" s="1"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+    </row>
+    <row r="89" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G90" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC03AFFF-CD8F-46D3-965B-4EB2138BCC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B850BCC-25AF-4759-B7CB-74661D8457E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14295" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="234">
   <si>
     <t>Area</t>
   </si>
@@ -747,9 +747,6 @@
   <si>
     <t>Negotiate thresholds for unilateral changes: It may be helpful to differentiate between changes that impacts the solution as such, versus, for example, commercial changes. We often see customer protection in the form of “shall not materially change” or similar. 
 If the SaaS supplier may unilaterally change the contract, make sure there is a sufficient notice period, and, again, that the exit mechanism is flexible. Also, a plan B with an alternative provider should be ready.</t>
-  </si>
-  <si>
-    <t>Export Control</t>
   </si>
   <si>
     <t>Force Majeure</t>
@@ -878,19 +875,19 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1182,10 +1179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G90"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88:XFD88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1196,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -2821,7 +2818,9 @@
       <c r="B84" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C84" s="4"/>
+      <c r="C84" s="4" t="s">
+        <v>210</v>
+      </c>
       <c r="D84" s="1" t="s">
         <v>214</v>
       </c>
@@ -2892,9 +2891,9 @@
         <v>225</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>198</v>
@@ -2902,50 +2901,35 @@
       <c r="C88" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D88" s="1"/>
+      <c r="D88" s="1" t="s">
+        <v>227</v>
+      </c>
       <c r="E88" s="2"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="89" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A89" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>198</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="6">
-        <v>89</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D90" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="E90" s="2"/>
-      <c r="F90" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G90" s="1"/>
+      <c r="G89" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B850BCC-25AF-4759-B7CB-74661D8457E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90997CB0-E25B-4673-9ABD-40F39AA2123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="29010" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -76,11 +76,6 @@
     <t>Normally there will be a unilaterally change regime for "reasonable" changes, improvements etc. in new releases, sunsetting of products and launch of substitution products etc. There are SaaS suppliers that give themselves full freedom to conduct any changes without thresholds.</t>
   </si>
   <si>
-    <t>. Some SaaS supplier have put in limitations such as freedom to change up to "material change" or “shall not materially degrade”, or “ that changes in use metrics will not apply during the current subscription period” or similar. 
-Try to negotiate an acceptable threshold for which changes the SaaS supplier can implement unilaterally, for instance that the service shall not materially degrade.
-If this is not possible, the best mitigation is to find another SaaS supplier (Plan B). At least if the cloud service will be critical for your operations.</t>
-  </si>
-  <si>
     <t>- Any notice period before the change take effect?</t>
   </si>
   <si>
@@ -773,6 +768,11 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>Some SaaS supplier have put in limitations such as freedom to change up to "material change" or “shall not materially degrade”, or “ that changes in use metrics will not apply during the current subscription period” or similar. 
+Try to negotiate an acceptable threshold for which changes the SaaS supplier can implement unilaterally, for instance that the service shall not materially degrade.
+If this is not possible, the best mitigation is to find another SaaS supplier (Plan B). At least if the cloud service will be critical for your operations.</t>
   </si>
 </sst>
 </file>
@@ -1181,22 +1181,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88:XFD88"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="7" customWidth="1"/>
-    <col min="2" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39.140625" customWidth="1"/>
+    <col min="1" max="1" width="4.54296875" style="7" customWidth="1"/>
+    <col min="2" max="3" width="18.54296875" customWidth="1"/>
+    <col min="4" max="4" width="39.1796875" customWidth="1"/>
+    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1217,7 +1217,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>11</v>
@@ -1259,7 +1259,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="200" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
@@ -1277,10 +1277,10 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="242.25" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="212.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -1288,20 +1288,20 @@
         <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -1309,20 +1309,20 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1330,20 +1330,20 @@
         <v>6</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1351,18 +1351,18 @@
         <v>6</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>28</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>29</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1370,16 +1370,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1387,16 +1387,16 @@
         <v>6</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -1404,16 +1404,16 @@
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -1421,1513 +1421,1513 @@
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A15" s="6">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A17" s="6">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D19" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A20" s="6">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="D20" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C23" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="s">
-        <v>55</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C25" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A26" s="6">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G26" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A28" s="6">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A29" s="6">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G29" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A30" s="6">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G30" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A31" s="6">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A32" s="6">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A33" s="6">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A34" s="6">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A35" s="6">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A36" s="6">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A37" s="6">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A38" s="6">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G38" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G38" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A39" s="6">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G39" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A40" s="6">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G40" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A41" s="6">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>109</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
       <c r="A42" s="6">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>111</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>112</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A43" s="6">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>116</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G43" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="G43" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A44" s="6">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="G44" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="150" x14ac:dyDescent="0.35">
       <c r="A45" s="6">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="150" x14ac:dyDescent="0.35">
       <c r="A46" s="6">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A47" s="6">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C47" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A48" s="6">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="100" x14ac:dyDescent="0.35">
       <c r="A49" s="6">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A50" s="6">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="150" x14ac:dyDescent="0.35">
       <c r="A51" s="6">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D51" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>138</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="G51" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
       <c r="A52" s="6">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="D52" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="G52" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="357" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" ht="325" x14ac:dyDescent="0.35">
       <c r="A53" s="6">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G53" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G53" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A54" s="6">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A55" s="6">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A56" s="6">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A57" s="6">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A58" s="6">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A59" s="6">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A60" s="6">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A61" s="6">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A62" s="6">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A63" s="6">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A64" s="6">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A65" s="6">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A66" s="6">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A67" s="6">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A68" s="6">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A69" s="6">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A70" s="6">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C70" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>166</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="G70" s="1" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A71" s="6">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C71" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>170</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A72" s="6">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C72" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D72" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="100" x14ac:dyDescent="0.35">
       <c r="A73" s="6">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="D73" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="G73" s="1" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:7" ht="100" x14ac:dyDescent="0.35">
       <c r="A74" s="6">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C74" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="G74" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A75" s="6">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C75" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>186</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="G75" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A76" s="6">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.35">
       <c r="A77" s="6">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C77" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="D77" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:7" ht="175" x14ac:dyDescent="0.35">
       <c r="A78" s="6">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C78" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>194</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G78" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A79" s="6">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C79" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="D79" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G79" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="G79" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:7" ht="25" x14ac:dyDescent="0.35">
       <c r="A80" s="6">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C80" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D80" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A81" s="6">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C81" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D81" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="G81" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="G81" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A82" s="6">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C82" s="4" t="s">
-        <v>199</v>
-      </c>
       <c r="D82" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="G82" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
       <c r="A83" s="6">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C83" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D83" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="G83" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G83" s="1" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
       <c r="A84" s="6">
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
       <c r="A85" s="6">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C85" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>215</v>
-      </c>
-      <c r="D85" s="1" t="s">
-        <v>216</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G85" s="1" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A86" s="6">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G86" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G86" s="1" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:7" ht="175" x14ac:dyDescent="0.35">
       <c r="A87" s="6">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C87" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>222</v>
-      </c>
-      <c r="D87" s="1" t="s">
-        <v>223</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="G87" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:7" ht="50" x14ac:dyDescent="0.35">
       <c r="A88" s="6">
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C88" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="D88" s="1" t="s">
-        <v>227</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
       <c r="A89" s="6">
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C89" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D89" s="1" t="s">
         <v>230</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>231</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G89" s="1"/>
     </row>

--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90997CB0-E25B-4673-9ABD-40F39AA2123D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D15350-B039-41D2-9862-92C35FE8ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33405" yWindow="0" windowWidth="24450" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>Mitigation</t>
   </si>
   <si>
-    <t>Service and deliverable</t>
-  </si>
-  <si>
     <t>Subcontractors</t>
   </si>
   <si>
@@ -141,9 +138,6 @@
     <t>For business-critical solutions, the only real mitigation may be plan B, i.e. to consider alternative vendors or solutions in house and how quickly this can be established.</t>
   </si>
   <si>
-    <t>Service Levels</t>
-  </si>
-  <si>
     <t>SLA</t>
   </si>
   <si>
@@ -158,9 +152,6 @@
 Penalty should not be a goal in itself but may give a more serious impression that the SaaS supplier is serious about the SLA.</t>
   </si>
   <si>
-    <t>Support</t>
-  </si>
-  <si>
     <t>Service desk / support</t>
   </si>
   <si>
@@ -192,9 +183,6 @@
     <t>Any SLA like response times for resolution etc, or similar for the servicedesk?</t>
   </si>
   <si>
-    <t>Security and certification</t>
-  </si>
-  <si>
     <t>Security standards and certifications.</t>
   </si>
   <si>
@@ -253,9 +241,6 @@
   </si>
   <si>
     <t>If needed due to Data Protection Regulations, negotiate with the SaaS supplier.</t>
-  </si>
-  <si>
-    <t>Data and Privacy Protection</t>
   </si>
   <si>
     <t>Data Processing Agreement</t>
@@ -454,9 +439,6 @@
   </si>
   <si>
     <t>Investigate the terms and conditions covering the services and the data processing agreement with the potential SaaS supplier and understand the risk for the Customer given privacy breaches.</t>
-  </si>
-  <si>
-    <t>Use rights, license metrics, pricing</t>
   </si>
   <si>
     <t>Use Rights for affiliates</t>
@@ -572,9 +554,6 @@
     <t>For possible extension of term, consider if it shall be negotiated that prices shall apply for extension periods to avoid that the SaaS supplier demands that the higher standard prices will apply (price lock). At least to SaaS services.</t>
   </si>
   <si>
-    <t>Term, Termination, and suspension</t>
-  </si>
-  <si>
     <t>Term</t>
   </si>
   <si>
@@ -648,9 +627,6 @@
     <t>Negotiate sufficient notice period cure period exist before the suspension take effect, and access to data during a suspension period. 
 If tied to non-payment, make sure the clause is applicable for non-disputed invoices only. 
 To avoid that Services are suspended for Customer due to reasons attributable to individual users, try to negotiate a clause differentiating between Customer as end client and single users (individual employees) - if a user may be suspended, it should be limited to that user.</t>
-  </si>
-  <si>
-    <t>Other legal considerations</t>
   </si>
   <si>
     <t>Data and Data deletion</t>
@@ -773,6 +749,30 @@
     <t>Some SaaS supplier have put in limitations such as freedom to change up to "material change" or “shall not materially degrade”, or “ that changes in use metrics will not apply during the current subscription period” or similar. 
 Try to negotiate an acceptable threshold for which changes the SaaS supplier can implement unilaterally, for instance that the service shall not materially degrade.
 If this is not possible, the best mitigation is to find another SaaS supplier (Plan B). At least if the cloud service will be critical for your operations.</t>
+  </si>
+  <si>
+    <t>1. Service and deliverable</t>
+  </si>
+  <si>
+    <t>2. Service Levels</t>
+  </si>
+  <si>
+    <t>3. Support</t>
+  </si>
+  <si>
+    <t>4. Security and certification</t>
+  </si>
+  <si>
+    <t>5. Data and Privacy Protection</t>
+  </si>
+  <si>
+    <t>6. Use rights, license metrics, pricing</t>
+  </si>
+  <si>
+    <t>7. Term, Termination, and suspension</t>
+  </si>
+  <si>
+    <t>8. Other legal considerations</t>
   </si>
 </sst>
 </file>
@@ -873,7 +873,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -886,9 +886,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1181,22 +1178,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" style="7" customWidth="1"/>
-    <col min="2" max="3" width="18.54296875" customWidth="1"/>
-    <col min="4" max="4" width="39.1796875" customWidth="1"/>
-    <col min="5" max="5" width="7.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="39.1796875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>232</v>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -1217,1717 +1214,1717 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
+    <row r="2" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="200" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="242.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="212.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="1" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    </row>
+    <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="G7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="1"/>
       <c r="G8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>6</v>
+        <v>226</v>
       </c>
       <c r="C12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G12" s="1" t="s">
+    </row>
+    <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
     </row>
-    <row r="17" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A24" s="6">
+    <row r="24" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A25" s="6">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A26" s="6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C26" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>65</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A27" s="6">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="6">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>53</v>
+        <v>229</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A29" s="6">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
-      <c r="A30" s="6">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C30" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A31" s="6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A32" s="6">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A33" s="6">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A34" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A35" s="6">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A36" s="6">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A37" s="6">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A38" s="6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A39" s="6">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A40" s="6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A41" s="6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="137.5" x14ac:dyDescent="0.35">
-      <c r="A42" s="6">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A43" s="6">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A44" s="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="1" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="150" x14ac:dyDescent="0.35">
-      <c r="A45" s="6">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="153" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" ht="150" x14ac:dyDescent="0.35">
-      <c r="A46" s="6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A47" s="6">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A48" s="6">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A49" s="6">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C49" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="6">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
     </row>
-    <row r="51" spans="1:7" ht="150" x14ac:dyDescent="0.35">
-      <c r="A51" s="6">
+    <row r="51" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>74</v>
+        <v>230</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" ht="162.5" x14ac:dyDescent="0.35">
-      <c r="A52" s="6">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" ht="325" x14ac:dyDescent="0.35">
-      <c r="A53" s="6">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="357" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D53" s="1" t="s">
-        <v>146</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A54" s="6">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
     </row>
-    <row r="55" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A55" s="6">
+    <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
     </row>
-    <row r="56" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A56" s="6">
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C56" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A57" s="6">
+    <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A58" s="6">
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
     </row>
-    <row r="59" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A59" s="6">
+    <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A60" s="6">
+    <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A61" s="6">
+    <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
     </row>
-    <row r="62" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A62" s="6">
+    <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A63" s="6">
+    <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A64" s="6">
+    <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
     </row>
-    <row r="65" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A65" s="6">
+    <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A66" s="6">
+    <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A67" s="6">
+    <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
     </row>
-    <row r="68" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A68" s="6">
+    <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
     </row>
-    <row r="69" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A69" s="6">
+    <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A70" s="6">
+    <row r="70" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="1" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A71" s="6">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A72" s="6">
+    <row r="72" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A73" s="6">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A73" s="5">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" ht="100" x14ac:dyDescent="0.35">
-      <c r="A74" s="6">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" ht="102" x14ac:dyDescent="0.25">
+      <c r="A74" s="5">
         <v>73</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A75" s="6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A75" s="5">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A76" s="6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A76" s="5">
         <v>75</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" ht="75" x14ac:dyDescent="0.35">
-      <c r="A77" s="6">
+    <row r="77" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
+      <c r="A77" s="5">
         <v>76</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="1" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" ht="175" x14ac:dyDescent="0.35">
-      <c r="A78" s="6">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A78" s="5">
         <v>77</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>175</v>
+        <v>232</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" s="1" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A79" s="6">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="5">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" ht="25" x14ac:dyDescent="0.35">
-      <c r="A80" s="6">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A80" s="5">
         <v>79</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A81" s="6">
+    <row r="81" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="5">
         <v>80</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A82" s="6">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A82" s="5">
         <v>81</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C82" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>198</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" ht="87.5" x14ac:dyDescent="0.35">
-      <c r="A83" s="6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="5">
         <v>82</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="A84" s="6">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="5">
         <v>83</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>197</v>
+      <c r="B84" s="4" t="s">
+        <v>233</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A85" s="6">
+    <row r="85" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="5">
         <v>84</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="1" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A86" s="6">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="5">
         <v>85</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="1" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" ht="175" x14ac:dyDescent="0.35">
-      <c r="A87" s="6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="5">
         <v>86</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="1" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" ht="50" x14ac:dyDescent="0.35">
-      <c r="A88" s="6">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
         <v>88</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A89" s="6">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
         <v>89</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="1" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="G89" s="1"/>
     </row>

--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D15350-B039-41D2-9862-92C35FE8ECCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19033BEA-7F60-4334-8408-53002EE83B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="0" windowWidth="24450" windowHeight="17685" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="27720" yWindow="0" windowWidth="28620" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="322">
   <si>
     <t>Area</t>
   </si>
@@ -774,12 +774,276 @@
   <si>
     <t>8. Other legal considerations</t>
   </si>
+  <si>
+    <t>01.01</t>
+  </si>
+  <si>
+    <t>01.02</t>
+  </si>
+  <si>
+    <t>01.03</t>
+  </si>
+  <si>
+    <t>01.04</t>
+  </si>
+  <si>
+    <t>01.05</t>
+  </si>
+  <si>
+    <t>01.06</t>
+  </si>
+  <si>
+    <t>01.07</t>
+  </si>
+  <si>
+    <t>01.08</t>
+  </si>
+  <si>
+    <t>01.09</t>
+  </si>
+  <si>
+    <t>01.10</t>
+  </si>
+  <si>
+    <t>01.11</t>
+  </si>
+  <si>
+    <t>02.01</t>
+  </si>
+  <si>
+    <t>03.01</t>
+  </si>
+  <si>
+    <t>03.02</t>
+  </si>
+  <si>
+    <t>03.03</t>
+  </si>
+  <si>
+    <t>03.04</t>
+  </si>
+  <si>
+    <t>03.05</t>
+  </si>
+  <si>
+    <t>03.06</t>
+  </si>
+  <si>
+    <t>03.07</t>
+  </si>
+  <si>
+    <t>04.01</t>
+  </si>
+  <si>
+    <t>04.02</t>
+  </si>
+  <si>
+    <t>04.03</t>
+  </si>
+  <si>
+    <t>04.04</t>
+  </si>
+  <si>
+    <t>04.05</t>
+  </si>
+  <si>
+    <t>04.06</t>
+  </si>
+  <si>
+    <t>04.07</t>
+  </si>
+  <si>
+    <t>04.08</t>
+  </si>
+  <si>
+    <t>05.01</t>
+  </si>
+  <si>
+    <t>05.02</t>
+  </si>
+  <si>
+    <t>05.03</t>
+  </si>
+  <si>
+    <t>05.04</t>
+  </si>
+  <si>
+    <t>05.05</t>
+  </si>
+  <si>
+    <t>05.06</t>
+  </si>
+  <si>
+    <t>05.07</t>
+  </si>
+  <si>
+    <t>05.08</t>
+  </si>
+  <si>
+    <t>05.09</t>
+  </si>
+  <si>
+    <t>05.10</t>
+  </si>
+  <si>
+    <t>05.11</t>
+  </si>
+  <si>
+    <t>05.12</t>
+  </si>
+  <si>
+    <t>05.13</t>
+  </si>
+  <si>
+    <t>05.14</t>
+  </si>
+  <si>
+    <t>05.15</t>
+  </si>
+  <si>
+    <t>05.16</t>
+  </si>
+  <si>
+    <t>05.17</t>
+  </si>
+  <si>
+    <t>05.18</t>
+  </si>
+  <si>
+    <t>05.19</t>
+  </si>
+  <si>
+    <t>05.20</t>
+  </si>
+  <si>
+    <t>05.21</t>
+  </si>
+  <si>
+    <t>05.22</t>
+  </si>
+  <si>
+    <t>05.23</t>
+  </si>
+  <si>
+    <t>06.01</t>
+  </si>
+  <si>
+    <t>06.02</t>
+  </si>
+  <si>
+    <t>06.03</t>
+  </si>
+  <si>
+    <t>06.04</t>
+  </si>
+  <si>
+    <t>06.05</t>
+  </si>
+  <si>
+    <t>06.06</t>
+  </si>
+  <si>
+    <t>06.07</t>
+  </si>
+  <si>
+    <t>06.08</t>
+  </si>
+  <si>
+    <t>06.09</t>
+  </si>
+  <si>
+    <t>06.10</t>
+  </si>
+  <si>
+    <t>06.11</t>
+  </si>
+  <si>
+    <t>06.12</t>
+  </si>
+  <si>
+    <t>06.13</t>
+  </si>
+  <si>
+    <t>06.14</t>
+  </si>
+  <si>
+    <t>06.15</t>
+  </si>
+  <si>
+    <t>06.16</t>
+  </si>
+  <si>
+    <t>06.17</t>
+  </si>
+  <si>
+    <t>06.18</t>
+  </si>
+  <si>
+    <t>06.19</t>
+  </si>
+  <si>
+    <t>06.20</t>
+  </si>
+  <si>
+    <t>06.21</t>
+  </si>
+  <si>
+    <t>07.01</t>
+  </si>
+  <si>
+    <t>07.02</t>
+  </si>
+  <si>
+    <t>07.03</t>
+  </si>
+  <si>
+    <t>07.04</t>
+  </si>
+  <si>
+    <t>07.05</t>
+  </si>
+  <si>
+    <t>07.06</t>
+  </si>
+  <si>
+    <t>08.01</t>
+  </si>
+  <si>
+    <t>08.02</t>
+  </si>
+  <si>
+    <t>08.03</t>
+  </si>
+  <si>
+    <t>08.04</t>
+  </si>
+  <si>
+    <t>08.05</t>
+  </si>
+  <si>
+    <t>08.06</t>
+  </si>
+  <si>
+    <t>08.07</t>
+  </si>
+  <si>
+    <t>08.08</t>
+  </si>
+  <si>
+    <t>08.09</t>
+  </si>
+  <si>
+    <t>08.10</t>
+  </si>
+  <si>
+    <t>08.11</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -804,6 +1068,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -888,12 +1158,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1178,13 +1448,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" style="5" customWidth="1"/>
     <col min="2" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="39.140625" customWidth="1"/>
     <col min="5" max="5" width="7.140625" bestFit="1" customWidth="1"/>
@@ -1192,7 +1462,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1215,8 +1485,8 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>1</v>
+      <c r="A2" s="7" t="s">
+        <v>234</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>226</v>
@@ -1236,8 +1506,8 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>2</v>
+      <c r="A3" s="7" t="s">
+        <v>235</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>226</v>
@@ -1257,8 +1527,8 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="204" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
-        <v>3</v>
+      <c r="A4" s="7" t="s">
+        <v>236</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>226</v>
@@ -1278,8 +1548,8 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="242.25" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
-        <v>4</v>
+      <c r="A5" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>226</v>
@@ -1299,8 +1569,8 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>5</v>
+      <c r="A6" s="7" t="s">
+        <v>238</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>226</v>
@@ -1320,8 +1590,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
-        <v>6</v>
+      <c r="A7" s="7" t="s">
+        <v>239</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>226</v>
@@ -1341,8 +1611,8 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
-        <v>7</v>
+      <c r="A8" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>226</v>
@@ -1360,8 +1630,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
-        <v>8</v>
+      <c r="A9" s="7" t="s">
+        <v>241</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>226</v>
@@ -1377,8 +1647,8 @@
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
-        <v>9</v>
+      <c r="A10" s="7" t="s">
+        <v>242</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>226</v>
@@ -1394,8 +1664,8 @@
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
-        <v>10</v>
+      <c r="A11" s="7" t="s">
+        <v>243</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>226</v>
@@ -1411,8 +1681,8 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <v>11</v>
+      <c r="A12" s="7" t="s">
+        <v>244</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>226</v>
@@ -1432,8 +1702,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <v>12</v>
+      <c r="A13" s="7" t="s">
+        <v>245</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>227</v>
@@ -1453,8 +1723,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <v>13</v>
+      <c r="A14" s="7" t="s">
+        <v>246</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>228</v>
@@ -1474,8 +1744,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <v>14</v>
+      <c r="A15" s="7" t="s">
+        <v>247</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>228</v>
@@ -1491,8 +1761,8 @@
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <v>15</v>
+      <c r="A16" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>228</v>
@@ -1508,8 +1778,8 @@
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <v>16</v>
+      <c r="A17" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>228</v>
@@ -1525,8 +1795,8 @@
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>17</v>
+      <c r="A18" s="7" t="s">
+        <v>250</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>228</v>
@@ -1542,8 +1812,8 @@
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
-        <v>18</v>
+      <c r="A19" s="7" t="s">
+        <v>251</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>228</v>
@@ -1559,8 +1829,8 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
-        <v>19</v>
+      <c r="A20" s="7" t="s">
+        <v>252</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>228</v>
@@ -1576,8 +1846,8 @@
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
-        <v>20</v>
+      <c r="A21" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>229</v>
@@ -1595,8 +1865,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
-        <v>21</v>
+      <c r="A22" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>229</v>
@@ -1612,8 +1882,8 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
-        <v>22</v>
+      <c r="A23" s="7" t="s">
+        <v>255</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>229</v>
@@ -1629,8 +1899,8 @@
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
-        <v>23</v>
+      <c r="A24" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>229</v>
@@ -1650,8 +1920,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
-        <v>24</v>
+      <c r="A25" s="7" t="s">
+        <v>257</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>229</v>
@@ -1671,8 +1941,8 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
-        <v>25</v>
+      <c r="A26" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>229</v>
@@ -1692,8 +1962,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
-        <v>26</v>
+      <c r="A27" s="7" t="s">
+        <v>259</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>229</v>
@@ -1713,8 +1983,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
-        <v>27</v>
+      <c r="A28" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>229</v>
@@ -1734,8 +2004,8 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>28</v>
+      <c r="A29" s="7" t="s">
+        <v>261</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>230</v>
@@ -1755,8 +2025,8 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>29</v>
+      <c r="A30" s="7" t="s">
+        <v>262</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>230</v>
@@ -1776,8 +2046,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
-        <v>30</v>
+      <c r="A31" s="7" t="s">
+        <v>263</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>230</v>
@@ -1797,8 +2067,8 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
-        <v>31</v>
+      <c r="A32" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>230</v>
@@ -1818,8 +2088,8 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
-        <v>32</v>
+      <c r="A33" s="7" t="s">
+        <v>265</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>230</v>
@@ -1839,8 +2109,8 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>33</v>
+      <c r="A34" s="7" t="s">
+        <v>266</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>230</v>
@@ -1860,8 +2130,8 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>34</v>
+      <c r="A35" s="7" t="s">
+        <v>267</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>230</v>
@@ -1881,8 +2151,8 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
-        <v>35</v>
+      <c r="A36" s="7" t="s">
+        <v>268</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>230</v>
@@ -1902,8 +2172,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
-        <v>36</v>
+      <c r="A37" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>230</v>
@@ -1923,8 +2193,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>37</v>
+      <c r="A38" s="7" t="s">
+        <v>270</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>230</v>
@@ -1944,8 +2214,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>38</v>
+      <c r="A39" s="7" t="s">
+        <v>271</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>230</v>
@@ -1965,8 +2235,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>39</v>
+      <c r="A40" s="7" t="s">
+        <v>272</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>230</v>
@@ -1986,8 +2256,8 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>40</v>
+      <c r="A41" s="7" t="s">
+        <v>273</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>230</v>
@@ -2007,8 +2277,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>41</v>
+      <c r="A42" s="7" t="s">
+        <v>274</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>230</v>
@@ -2028,8 +2298,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>42</v>
+      <c r="A43" s="7" t="s">
+        <v>275</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>230</v>
@@ -2049,8 +2319,8 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>43</v>
+      <c r="A44" s="7" t="s">
+        <v>276</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>230</v>
@@ -2070,8 +2340,8 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="153" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>44</v>
+      <c r="A45" s="7" t="s">
+        <v>277</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>230</v>
@@ -2091,8 +2361,8 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>45</v>
+      <c r="A46" s="7" t="s">
+        <v>278</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>230</v>
@@ -2112,8 +2382,8 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>46</v>
+      <c r="A47" s="7" t="s">
+        <v>279</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>230</v>
@@ -2133,8 +2403,8 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>47</v>
+      <c r="A48" s="7" t="s">
+        <v>280</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>230</v>
@@ -2154,8 +2424,8 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>48</v>
+      <c r="A49" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>230</v>
@@ -2175,8 +2445,8 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>49</v>
+      <c r="A50" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>230</v>
@@ -2192,8 +2462,8 @@
       <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>50</v>
+      <c r="A51" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>230</v>
@@ -2213,8 +2483,8 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="165.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>51</v>
+      <c r="A52" s="7" t="s">
+        <v>284</v>
       </c>
       <c r="B52" s="4" t="s">
         <v>231</v>
@@ -2234,8 +2504,8 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="357" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>52</v>
+      <c r="A53" s="7" t="s">
+        <v>285</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>231</v>
@@ -2255,8 +2525,8 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>53</v>
+      <c r="A54" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>231</v>
@@ -2272,8 +2542,8 @@
       <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>54</v>
+      <c r="A55" s="7" t="s">
+        <v>287</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>231</v>
@@ -2289,8 +2559,8 @@
       <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>55</v>
+      <c r="A56" s="7" t="s">
+        <v>288</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>231</v>
@@ -2306,8 +2576,8 @@
       <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>56</v>
+      <c r="A57" s="7" t="s">
+        <v>289</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>231</v>
@@ -2323,8 +2593,8 @@
       <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>57</v>
+      <c r="A58" s="7" t="s">
+        <v>290</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>231</v>
@@ -2340,8 +2610,8 @@
       <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>58</v>
+      <c r="A59" s="7" t="s">
+        <v>291</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>231</v>
@@ -2357,8 +2627,8 @@
       <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>59</v>
+      <c r="A60" s="7" t="s">
+        <v>292</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>231</v>
@@ -2374,8 +2644,8 @@
       <c r="G60" s="1"/>
     </row>
     <row r="61" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>60</v>
+      <c r="A61" s="7" t="s">
+        <v>293</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>231</v>
@@ -2391,8 +2661,8 @@
       <c r="G61" s="1"/>
     </row>
     <row r="62" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>61</v>
+      <c r="A62" s="7" t="s">
+        <v>294</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>231</v>
@@ -2408,8 +2678,8 @@
       <c r="G62" s="1"/>
     </row>
     <row r="63" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>62</v>
+      <c r="A63" s="7" t="s">
+        <v>295</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>231</v>
@@ -2425,8 +2695,8 @@
       <c r="G63" s="1"/>
     </row>
     <row r="64" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
-        <v>63</v>
+      <c r="A64" s="7" t="s">
+        <v>296</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>231</v>
@@ -2442,8 +2712,8 @@
       <c r="G64" s="1"/>
     </row>
     <row r="65" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
-        <v>64</v>
+      <c r="A65" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>231</v>
@@ -2459,8 +2729,8 @@
       <c r="G65" s="1"/>
     </row>
     <row r="66" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
-        <v>65</v>
+      <c r="A66" s="7" t="s">
+        <v>298</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>231</v>
@@ -2476,8 +2746,8 @@
       <c r="G66" s="1"/>
     </row>
     <row r="67" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
-        <v>66</v>
+      <c r="A67" s="7" t="s">
+        <v>299</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>231</v>
@@ -2493,8 +2763,8 @@
       <c r="G67" s="1"/>
     </row>
     <row r="68" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
-        <v>67</v>
+      <c r="A68" s="7" t="s">
+        <v>300</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>231</v>
@@ -2510,8 +2780,8 @@
       <c r="G68" s="1"/>
     </row>
     <row r="69" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
-        <v>68</v>
+      <c r="A69" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>231</v>
@@ -2527,8 +2797,8 @@
       <c r="G69" s="1"/>
     </row>
     <row r="70" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
-        <v>69</v>
+      <c r="A70" s="7" t="s">
+        <v>302</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>231</v>
@@ -2548,8 +2818,8 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>70</v>
+      <c r="A71" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>231</v>
@@ -2567,8 +2837,8 @@
       <c r="G71" s="1"/>
     </row>
     <row r="72" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
-        <v>71</v>
+      <c r="A72" s="7" t="s">
+        <v>304</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>231</v>
@@ -2586,8 +2856,8 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A73" s="5">
-        <v>72</v>
+      <c r="A73" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>232</v>
@@ -2607,8 +2877,8 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="102" x14ac:dyDescent="0.25">
-      <c r="A74" s="5">
-        <v>73</v>
+      <c r="A74" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>232</v>
@@ -2628,8 +2898,8 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A75" s="5">
-        <v>74</v>
+      <c r="A75" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>232</v>
@@ -2649,8 +2919,8 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A76" s="5">
-        <v>75</v>
+      <c r="A76" s="7" t="s">
+        <v>308</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>232</v>
@@ -2666,8 +2936,8 @@
       <c r="G76" s="1"/>
     </row>
     <row r="77" spans="1:7" ht="76.5" x14ac:dyDescent="0.25">
-      <c r="A77" s="5">
-        <v>76</v>
+      <c r="A77" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>232</v>
@@ -2687,8 +2957,8 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="5">
-        <v>77</v>
+      <c r="A78" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>232</v>
@@ -2708,8 +2978,8 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="114.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="5">
-        <v>78</v>
+      <c r="A79" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>233</v>
@@ -2729,8 +2999,8 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="5">
-        <v>79</v>
+      <c r="A80" s="7" t="s">
+        <v>312</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>233</v>
@@ -2746,8 +3016,8 @@
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="5">
-        <v>80</v>
+      <c r="A81" s="7" t="s">
+        <v>313</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>233</v>
@@ -2767,8 +3037,8 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A82" s="5">
-        <v>81</v>
+      <c r="A82" s="7" t="s">
+        <v>314</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>233</v>
@@ -2788,8 +3058,8 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="89.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="5">
-        <v>82</v>
+      <c r="A83" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>233</v>
@@ -2809,8 +3079,8 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="5">
-        <v>83</v>
+      <c r="A84" s="7" t="s">
+        <v>316</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>233</v>
@@ -2826,8 +3096,8 @@
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="5">
-        <v>84</v>
+      <c r="A85" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>233</v>
@@ -2847,8 +3117,8 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="5">
-        <v>85</v>
+      <c r="A86" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>233</v>
@@ -2868,8 +3138,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="178.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="5">
-        <v>86</v>
+      <c r="A87" s="7" t="s">
+        <v>319</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>233</v>
@@ -2889,8 +3159,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
-        <v>88</v>
+      <c r="A88" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>233</v>
@@ -2910,8 +3180,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
-        <v>89</v>
+      <c r="A89" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>233</v>
@@ -2929,6 +3199,7 @@
       <c r="G89" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/SaaS-checklist.xlsx
+++ b/SaaS-checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leifa\Documents\ctg\sky5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19033BEA-7F60-4334-8408-53002EE83B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA82C6-4048-4F54-846F-599E889D7733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27720" yWindow="0" windowWidth="28620" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29325" yWindow="0" windowWidth="24255" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="387">
   <si>
     <t>Area</t>
   </si>
@@ -1038,12 +1038,386 @@
   <si>
     <t>08.11</t>
   </si>
+  <si>
+    <t>09.01</t>
+  </si>
+  <si>
+    <t>9. Accounting Act</t>
+  </si>
+  <si>
+    <t>Accounting</t>
+  </si>
+  <si>
+    <t>Is there an accounting system which enables mandatory financial reporting, documentation and specifications? Jf. bokføringsloven § 4 nr. 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a prerequisite to ensure satisfactory accounting, and to be able to fulfill other obligations relating to the Bookkeeping Act and the Bookkeeping Regulation. </t>
+  </si>
+  <si>
+    <t>09.02</t>
+  </si>
+  <si>
+    <t>Certain accounting materials are required to be stored in Norway for respectively 5 and 3 and ½ years.  Are accounting materials stored in Norway, and if not, does the cloud service provider provide local storage possibilities in Norway? Jf. bokføringsloven § 13 (2) nr. 1 og 2.</t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">If not, you should be able to obtain a read-only export of the accounting information. Such an export must be stored in Norway on a secure medium. </t>
+    </r>
+  </si>
+  <si>
+    <t>09.03</t>
+  </si>
+  <si>
+    <t>Are stored accounting materials (both local and in cloud) safeguarded against destruction, loss or alteration? Jf. bokføringsloven § 4 nr. 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rigid technical and organisational security measures should be in place for the accounting materials. </t>
+  </si>
+  <si>
+    <t>09.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a way to check the completeness, reality and accuracy of accounting information, their documentation and specifications? Jf. henholdsvis bokføringsloven § 4 nr. 2, 3 og 4. Se også § 10 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is crucial for ensuring and maintaining the integrity and reliability of the financial records. Verifying accuracy and reliability of accounting information can be done through independent audits or reviews. Internal controls and procedures should be in place to ensure all transactions are properly documented, supported by evidence and traceable (cf. point 95 for traceability). Internal procedures for access controls and logs should also be in place, ensuring that only authorised personnel can retrieve and/or alter accounting materials.
+Information must be stored in a secure and organised manner, ensuring the integrity and availability of the accounting materials.  </t>
+  </si>
+  <si>
+    <t>09.05</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are accounting materials, their documentation and specifications </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> easily retrievable? Alminnelig prinsipp, kan utledes fra systematikken. Fremgår tydeligst av bokføringsloven § 6</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">       </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>09.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Can traceability  be ensured between accounting materials, their documentation and their specifications? Is it possible to, in a readily verifiable manner, to trace back to the documentation for each recorded piece of information? Is an audit trail ensured between the accounting materials, their documentation and specification?  Jf. bokføringsloven § 6
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is important for ensuring a sufficient audit trail of the accounting materials, should there arise a need to control the accounting. 
+Standardised documentation practices should be implemented for sucessfully recording financial transactions. </t>
+  </si>
+  <si>
+    <t>09.07</t>
+  </si>
+  <si>
+    <r>
+      <t>Is accounting information (material) verifiable, stored in an easily understandable and readible manner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, and accompanied with sufficient documentation? Alminnelig prinsipp, kan utledes fra flere steder i både loven og forskriften. Se feks bl.a. Bokføringsloven § 4 (8), § 6 (3), § 10, bokføringsforskriften § 7-1 </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial information should be presented in a clear, concise and easily understandable format. Standardised accounting principles and terminology </t>
+  </si>
+  <si>
+    <t>09.08</t>
+  </si>
+  <si>
+    <t>Is documentation relating to accounting materials numbered or otherwise identified in a way that allows verification of its completeness? Jf. bokføringsloven § 6 (2).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This process ensures a higher degree of traceability and the ability to retrieve the necessary documentation. </t>
+  </si>
+  <si>
+    <t>09.09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is the audit trail, including how system-generated entries can be verified, readily available in order to easily verify recorded information? Jf. bokføringsloven § 6 (3). </t>
+  </si>
+  <si>
+    <t>09.10</t>
+  </si>
+  <si>
+    <r>
+      <t>Is bookkeeping up to date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> within the deadlines </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>for mandatory financial reporting, and no less frequent than every fourth month? Jf. bokføringsloven § 7</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">The bookkeeping shall be up to date no less frequent than four months, regardless of the deadlines for the mandatory accounting reporting. Ensure that accounting information is up to date at regular intervals and by the latest every four months. </t>
+  </si>
+  <si>
+    <t>09.11</t>
+  </si>
+  <si>
+    <t>When preparing annual financial statements and business tax returns, is documentation provided for all significant balance sheet items? Jf. bokføringsloven § 11</t>
+  </si>
+  <si>
+    <t>Balance sheets represent the financial status at a given point in time and are often composed of numerous transactions and other accounting entries spanning several years. This complexity can make it challenging to reconcile balance sheet items directly against the original documentation of the recorded information. 
+There is no specified deadline for when the documentation of the balance sheet must be prepared. However, the wording of the relevant provision (section 11 in the bookkeeping act), indicates that it should be prepared as part of the process of the preparing of the company’s annual financial statements, tax returns and company notifications. This would be necessary in order to confirm the balance sheets’ completeness, reality and accuracy.  If discrepancies are to be corrected, the documentation must be prepared and the discrepancies identified before the annual financial statements and tax or company notifications are to be submitted.</t>
+  </si>
+  <si>
+    <t>09.12</t>
+  </si>
+  <si>
+    <t>Pursuant to section 9 of the Bookkeeping Act, booked information shall not be corrected or changed after the deadlines for mandatory financial reporting. Should such deadlines have passed, a correction of the information shall happen with a new booking.
+Are measures  in place to prevent changing accounting information and documentation after it has been booked/extracted? Are routines in place for ensuring a new booking reverses the old one in case of a change? Jf. bokføringsloven § 9 (1)</t>
+  </si>
+  <si>
+    <t>Technical and organisational measures should be in place to ensure that submitted accounting materials are not changed ex-post. Internal controls such as access controls and logs, as well as clear documentation routines, can help mitigate the risk of ex-post changes to the accounting materials.</t>
+  </si>
+  <si>
+    <t>09.13</t>
+  </si>
+  <si>
+    <t>When information is deleted, is it evident from the documentation or specification that deletion has been conducted? Jf. bokføringsloven § 9 (2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Logs relating to CRUD-actions (create, read, update, delete) should always be in place. </t>
+  </si>
+  <si>
+    <t>09.14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are there systems in place for backing </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">up accounting materials, information and necessary specifications? Jf. bokføringsforskriftern § 7-2 (1). </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">SaaS-providers normally have configurations for back-ups of most of the data in their systems. Ensure that back-up of accounting materials is conducted regularly, and that back-up solutions match the regulatory needs for ensuring that accounting materials are backed up in a timely manner, contributing to ensuring the completeness, reality and accuracy of the accounting materials. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>09.15</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Are backups tested at least once </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>a year? Jf. bokføringsforskriften § 7-2 (1) nr. 4.</t>
+    </r>
+  </si>
+  <si>
+    <t>09.16</t>
+  </si>
+  <si>
+    <t>Are backups stored separately from the original accounting materials? Jf. bokføringsforskriften § 7-2 (1) nr. 3.</t>
+  </si>
+  <si>
+    <t>09.17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is retention-required accounting material (cf. point 92) suited for presentation to the tax authorities? Jf. bokføringsloven § 13 (3) nr. 2. </t>
+  </si>
+  <si>
+    <t>Securing the availability of the accounting materials will normally provide tax authorities with the possibility to conduct a control of the materials. The accounting materials must also be made available in a readable form, so that tax authorities actually are able to control the materials.</t>
+  </si>
+  <si>
+    <t>09.18</t>
+  </si>
+  <si>
+    <t>Is it possible to provide tax authorities necessary assistance to access the accounting system and accounting material, as well as making available equipment and software for this purpose? Jf. Bokføringsloven § 14 (1)</t>
+  </si>
+  <si>
+    <t>09.19</t>
+  </si>
+  <si>
+    <r>
+      <t>Are accounting records available in readable form, and printable during the entire legally required retention period? Jf. bokføringsloven § 13 (4)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>09.20</t>
+  </si>
+  <si>
+    <t>Are the following points documented in either Norwegian, Swedish, Danish or English?
+specifications of mandatory accounting reporting as mentioned in the Bookkeeping Act section 5, or recorded information necessary to prepare such specifications
+Documentation of recorded information and deleted information, documentation of audit trails, etc., and documentation of the balance.
+Jf. bokføringsloven § 12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If not, the tax authorities may require that accounting material in other languages is translated to one of the mentioned languages. Jf. Bokføringsloven § 14 (3) </t>
+  </si>
+  <si>
+    <t>09.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there a description of the system for closing accounting periods, including how the closure provides satisfactory protection against alteration or deletion of recorded information? This description must also be retained for five years after the end of the accounting year. Jf. bokføringsforskriften § 7-6 </t>
+  </si>
+  <si>
+    <t>09.22</t>
+  </si>
+  <si>
+    <t>The amounts included in mandatory accounting reporting related to value-added tax (VAT) shall be determined (locked) in Norwegian kroner at the exchange rate at the time of invoicing. If you primarily operate with another currency than NOK, do you have systems in place to lock accounting posts relating to VAT to the course of NOK on the invoice date? Jf. bokføringsforskriften § 4-2 (2) nr. 1.</t>
+  </si>
+  <si>
+    <t>09.23</t>
+  </si>
+  <si>
+    <t>The amounts included in mandatory accounting reporting related to wages shall be determined (locked) in Norwegian kroner at the exchange rate at the time of payment. If you primarily operate with another currency than NOK, do you have systems in place to lock accounting posts relating to wages to the course of NOK on the payment date? Jf. bokføringsforskriften § 4-2 (2) nr. 2.</t>
+  </si>
+  <si>
+    <t>09.24</t>
+  </si>
+  <si>
+    <t>Tax laws and regulations have separate valuation rules regarding currency with regards to the reporting of assets and debt. If you primarily operate with another currency than NOK, do you have systems in place to lock accounting posts relating to assets and debt to the course of NOK on the transaction date? Jf. bokføringsforskriften § 4-2 (2) nr. 3.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1077,6 +1451,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1143,7 +1541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1165,6 +1563,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1446,10 +1853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+      <selection activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3198,6 +3605,420 @@
       </c>
       <c r="G89" s="1"/>
     </row>
+    <row r="90" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C90" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="72" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C91" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D91" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="E91" s="9"/>
+      <c r="F91" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>330</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C92" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D92" s="9" t="s">
+        <v>331</v>
+      </c>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="192" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>333</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C93" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D93" s="9" t="s">
+        <v>334</v>
+      </c>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="62.25" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C94" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D94" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="108" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="86.25" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C96" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D96" s="9" t="s">
+        <v>343</v>
+      </c>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="A97" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C97" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C98" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E98" s="9"/>
+      <c r="F98" s="9"/>
+    </row>
+    <row r="99" spans="1:6" ht="72" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="E99" s="9"/>
+      <c r="F99" s="9" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="276" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="156" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="E101" s="9"/>
+      <c r="F101" s="9" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="E102" s="9"/>
+      <c r="F102" s="9" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="E103" s="9"/>
+      <c r="F103" s="9" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="E104" s="9"/>
+      <c r="F104" s="9"/>
+    </row>
+    <row r="105" spans="1:6" ht="36" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>368</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="9"/>
+    </row>
+    <row r="106" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A106" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>370</v>
+      </c>
+      <c r="E106" s="9"/>
+      <c r="F106" s="9" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A107" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D107" s="9" t="s">
+        <v>373</v>
+      </c>
+      <c r="E107" s="9"/>
+      <c r="F107" s="9"/>
+    </row>
+    <row r="108" spans="1:6" ht="48" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="E108" s="9"/>
+      <c r="F108" s="9"/>
+    </row>
+    <row r="109" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>377</v>
+      </c>
+      <c r="E109" s="9"/>
+      <c r="F109" s="9" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="84" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>380</v>
+      </c>
+      <c r="E110" s="9"/>
+      <c r="F110" s="9"/>
+    </row>
+    <row r="111" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="E111" s="9"/>
+      <c r="F111" s="9"/>
+    </row>
+    <row r="112" spans="1:6" ht="108" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C112" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D112" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="E112" s="9"/>
+      <c r="F112" s="9"/>
+    </row>
+    <row r="113" spans="1:6" ht="96" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="C113" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="9"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
